--- a/Tables/TableS6-Pairwise_within_questions.xlsx
+++ b/Tables/TableS6-Pairwise_within_questions.xlsx
@@ -632,7 +632,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Talk</t>
+            <t>Direct instruction</t>
           </r>
         </is>
       </c>
@@ -875,7 +875,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Talk</t>
+            <t>Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1118,7 +1118,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Talk</t>
+            <t>Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1361,7 +1361,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Talk</t>
+            <t>Direct instruction</t>
           </r>
         </is>
       </c>
